--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ndp-Lgr4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.452293666666667</v>
+        <v>1.424719</v>
       </c>
       <c r="N2">
-        <v>4.356881</v>
+        <v>4.274157</v>
       </c>
       <c r="O2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="P2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="Q2">
-        <v>0.1055681948257778</v>
+        <v>0.1035637739226667</v>
       </c>
       <c r="R2">
-        <v>0.950113753432</v>
+        <v>0.9320739653039999</v>
       </c>
       <c r="S2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
       <c r="T2">
-        <v>0.07556116580691888</v>
+        <v>0.07423298812267187</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>32.221955</v>
       </c>
       <c r="O3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="P3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="Q3">
         <v>0.7807451300844445</v>
@@ -632,10 +632,10 @@
         <v>7.02670617076</v>
       </c>
       <c r="S3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
       <c r="T3">
-        <v>0.5588237283455937</v>
+        <v>0.5596266124066729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.027161333333333</v>
+        <v>7.027161333333335</v>
       </c>
       <c r="N4">
         <v>21.081484</v>
       </c>
       <c r="O4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="P4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
       <c r="Q4">
-        <v>0.5108090420942222</v>
+        <v>0.5108090420942223</v>
       </c>
       <c r="R4">
-        <v>4.597281378848</v>
+        <v>4.597281378848001</v>
       </c>
       <c r="S4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706553</v>
       </c>
       <c r="T4">
-        <v>0.3656151058474875</v>
+        <v>0.3661403994706552</v>
       </c>
     </row>
   </sheetData>
